--- a/data_undangan.xlsx
+++ b/data_undangan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haznathooriq/Downloads/free-wedding-website-template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haznathooriq/Downloads/undangan-online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19EB7A6-77C6-5349-8DC5-4D9280C22216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88268B84-D48E-1648-AE33-E0CE9D0DCAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="domain" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="381">
   <si>
     <t>A</t>
   </si>
@@ -479,6 +479,690 @@
   </si>
   <si>
     <t>https://haznadimaswedding.site/?to=Sari%20Wijaya</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Lidya</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Muazila</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mima</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Selvi</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Faizal</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Adhisma</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ainun</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bagas</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Desty</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=DiniLevi</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Faruq</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Febilenttin</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Neni</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Karina</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Anshori</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rizal</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Maarif</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Maulana</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Alfian</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nurul</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rafi</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rico</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Tafaquh</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Tiara</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Latifa</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Abid</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Adi</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dinda</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Devi</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Riris</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Savia</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Chamila</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Adinda</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Erina</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=marenda</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Niken</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Maya</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hani</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Lakshita</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Arum</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Elok</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nilam</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nike</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Raudina</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ferina</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mila</t>
+  </si>
+  <si>
+    <t>Adinda%20Putri</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Adinda%20Putri</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hilya</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kirana</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dina</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Annisa</t>
+  </si>
+  <si>
+    <t>VIAN%20AHMAD%20SAPUTRA,%20S.Hum,MM</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=VIAN%20AHMAD%20SAPUTRA,%20S.Hum,MM</t>
+  </si>
+  <si>
+    <t>MUHAMMAD%20BHIRAWA%20DWI%20ATMA%20CITALADA,%20SE,%20MM</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=MUHAMMAD%20BHIRAWA%20DWI%20ATMA%20CITALADA,%20SE,%20MM</t>
+  </si>
+  <si>
+    <t>SEPTIAN%20SONY%20UTOMO,%20SM,MM</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=SEPTIAN%20SONY%20UTOMO,%20SM,MM</t>
+  </si>
+  <si>
+    <t>REFIANA%20DWI%20MAGHFIROH,%20S.M,%20M.M</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=REFIANA%20DWI%20MAGHFIROH,%20S.M,%20M.M</t>
+  </si>
+  <si>
+    <t>IRMA%20KURNIASARI,%20SE,MM</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=IRMA%20KURNIASARI,%20SE,MM</t>
+  </si>
+  <si>
+    <t>NOER%20AIDA%20TRIANDINI,%20M.Si,MM,%20M.Sc</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=NOER%20AIDA%20TRIANDINI,%20M.Si,MM,%20M.Sc</t>
+  </si>
+  <si>
+    <t>NI%20PUTU%20REKHA%20PUSPITA,%20SE,M.Si</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=NI%20PUTU%20REKHA%20PUSPITA,%20SE,M.Si</t>
+  </si>
+  <si>
+    <t>M.%20JAENUDIN,%20S.EI,%20M.SEI</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=M.%20JAENUDIN,%20S.EI,%20M.SEI</t>
+  </si>
+  <si>
+    <t>NADOFAH,%20SE,%20ME</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=NADOFAH,%20SE,%20ME</t>
+  </si>
+  <si>
+    <t>ARUM%20INDIHARWATI,%20S.ST,%20M.SEI</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=ARUM%20INDIHARWATI,%20S.ST,%20M.SEI</t>
+  </si>
+  <si>
+    <t>ARY%20FAUZIAH%20AMINI,%20S.Pn,%20M.SE</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=ARY%20FAUZIAH%20AMINI,%20S.Pn,%20M.SE</t>
+  </si>
+  <si>
+    <t>PUTRA%20PERDANA,%20S.E.,%20M.Sc.</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=PUTRA%20PERDANA,%20S.E.,%20M.Sc.</t>
+  </si>
+  <si>
+    <t>ANISA%20FITRIA%20UTAMI,%20S.E.,%20M.E.</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=ANISA%20FITRIA%20UTAMI,%20S.E.,%20M.E.</t>
+  </si>
+  <si>
+    <t>NURUL%20FITRIANI,%20S.A,%20M.A</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=NURUL%20FITRIANI,%20S.A,%20M.A</t>
+  </si>
+  <si>
+    <t>YULIANTI%20RAHARJO,%20S.A,%20M.A</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=YULIANTI%20RAHARJO,%20S.A,%20M.A</t>
+  </si>
+  <si>
+    <t>ELLYZABETH%20PUTRI%20VIZANDRA,%20S.A.,%20M.A.</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=ELLYZABETH%20PUTRI%20VIZANDRA,%20S.A.,%20M.A.</t>
+  </si>
+  <si>
+    <t>SELMA%20PUTRI%20SAFIRA,%20S.Ak.%20m.ak</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=SELMA%20PUTRI%20SAFIRA,%20S.Ak.%20m.ak</t>
+  </si>
+  <si>
+    <t>samas%20adimisa%20mishbah%20habibie,%20s.aK,%20M.Ak</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=samas%20adimisa%20mishbah%20habibie,%20s.aK,%20M.Ak</t>
+  </si>
+  <si>
+    <t>putri%20dwi%20aprilia%20nur%20khasanah,%20se,m.sc</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=putri%20dwi%20aprilia%20nur%20khasanah,%20se,m.sc</t>
+  </si>
+  <si>
+    <t>ardhi%20islamudin,%20se,ma</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=ardhi%20islamudin,%20se,ma</t>
+  </si>
+  <si>
+    <t>Hasan%20Bisri,%20S.Si.,%20M.T.</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hasan%20Bisri,%20S.Si.,%20M.T.</t>
+  </si>
+  <si>
+    <t>Andyas%20Mukti%20Pradanarka,%20ST.,%20MT</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Andyas%20Mukti%20Pradanarka,%20ST.,%20MT</t>
+  </si>
+  <si>
+    <t>Iffad%20Rakhmanhuda%20S.ST.,M.T</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Iffad%20Rakhmanhuda%20S.ST.,M.T</t>
+  </si>
+  <si>
+    <t>Dhika%20&amp;%20Intan</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dhika%20&amp;%20Intan</t>
+  </si>
+  <si>
+    <t>Sari%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Sari%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Dessy%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dessy%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Aridya%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Aridya%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Rinta%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rinta%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Wahyudi%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Wahyudi%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Bagus%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bagus%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Aisyah%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Aisyah%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Yudi%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Yudi%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Thoriq%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Thoriq%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Lucky%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Lucky%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Akbar%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Akbar%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Yosta%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Yosta%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Ugra%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ugra%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Febrianto%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Febrianto%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Astrid%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Astrid%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Metta%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Metta%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Nahri%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nahri%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Umi%20kosan%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Umi%20kosan%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Wiwik%20Y%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Wiwik%20Y%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Ainun%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ainun%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Indi%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Indi%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Hafni%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hafni%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Pak%20List%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pak%20List%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Cyrillus%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Cyrillus%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Bu%20Yanti%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bu%20Yanti%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Bayu%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bayu%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Sifana%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Sifana%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Nisa%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nisa%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Rima%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rima%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Aziz%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Aziz%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Ziza%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ziza%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Nuke%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nuke%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Gilang%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Gilang%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Utami%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Utami%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Iwan%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Iwan%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Pascal%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pascal%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Pak%20Awi%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pak%20Awi%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Mayang%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mayang%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Maria%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Maria%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Kumala%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kumala%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Naufal%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Naufal%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Oka%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Oka%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Syahrul%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Syahrul%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Ilham%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ilham%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Rizal%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rizal%20&amp;%20partner</t>
+  </si>
+  <si>
+    <t>Mas%20Hendro%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mas%20Hendro%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Syaiful%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Syaiful%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Zahra%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Zahra%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Prima%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Prima%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Sasha%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Sasha%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Hanna%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hanna%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Kevin%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kevin%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Fira%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Fira%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Annisa%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Annisa%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Rian%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rian%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Pam%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pam%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Ester%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ester%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Rendra%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rendra%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Rinto%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rinto%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>SEMBA%20UGM</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=SEMBA%20UGM</t>
+  </si>
+  <si>
+    <t>Koh%20Feby%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Koh%20Feby%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Mba%20ines%20&amp;%20mas%20Fajar</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mba%20ines%20&amp;%20mas%20Fajar</t>
+  </si>
+  <si>
+    <t>Kiki%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kiki%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>Pundhi%20&amp;%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pundhi%20&amp;%20Partner</t>
   </si>
 </sst>
 </file>
@@ -541,12 +1225,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
@@ -768,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -839,707 +1524,1529 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>317</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>337</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>353</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>363</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>365</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>367</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>373</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>375</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1548,6 +3055,145 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A67" r:id="rId4" display="http://m.se/" xr:uid="{1246EDCD-974D-8845-8F41-0EDF2C84E8E4}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{F6B19154-C5D7-444B-9C68-8ECB9C88B1B9}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{CC19CE37-70AC-6C41-BE0C-F7EBA4EB1B51}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{D2D5B889-1C79-DF49-B79B-7720F2AE5795}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{108E622F-5C55-8847-B8DE-3B550F28192C}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{66A350A8-A610-DD45-B8B3-1D2C2785929B}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{D50B97FA-7D67-BF49-89E9-0035F8FEE89E}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{D3116A18-33CF-1C4C-925A-06FB5E834104}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{EC02EFF7-6022-E84A-8A0A-0034FFDF3F83}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{5131B676-17D7-394F-B670-C7AB187582C0}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{5BA89F47-FC30-9E4F-8BCA-D7E091AE6DAF}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{C0704AA3-A78B-B741-B6EE-744162ED03C3}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{C87CCB88-6522-3F4E-B43A-CA6A78707EA4}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{48803B07-E602-9A4E-AAEA-CA9F2AC4E870}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{D0B14437-3F11-AA4D-A2CD-1B967BC13CE6}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{253DDD88-6164-9743-9A47-094FEA674A94}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{E15D7531-EB1C-0344-80EA-629381F72F46}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{44533896-C097-604E-BB19-ADE67ABB69B3}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{E347D803-8A2C-3D43-B809-768175C1729F}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{80EF613A-326C-974E-9F12-B37F068640C3}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{6BE44F88-044A-7C4E-873D-71219B896E74}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{1BD0C20D-813C-5941-8D8B-D38FF25B4D47}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{020023AD-160B-A344-937C-246BD5EB35F1}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{D407C3DC-D895-5A4A-AF2C-34E7F91EFD9B}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{69D26461-3221-6B44-97C1-921DD80AF2A7}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{ABA6E4BA-DDB6-3A40-A62C-8AF4486E475E}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{47963ABF-9CBD-184E-A20F-6F369EF57F7C}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{9E48D80F-18D0-FB49-8694-561197538177}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{CD830DE4-7A99-E64C-B482-99003F1DE41D}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{09E22389-15F4-CD4C-9B1A-E8749C89C915}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{947F03A9-71AD-3F47-B912-DC61AECA9254}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{31FD658B-29F9-8147-9419-880FF883E374}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{EEF7D8BA-9494-DE4F-9141-9B06EAA396FF}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{DFF10CE1-E408-4E43-98A9-4BAAACB0AC05}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{7FE859A5-A2BD-0B49-82C0-49A94D63909B}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{A5AFE6C3-3991-C443-A579-CEBE479B52E4}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{175CAF42-963A-F249-9AA4-4F51812E8F4A}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{13A26742-2F8D-434D-A173-57E9DDE4A3BB}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{52A1AF6D-CDA3-E648-A0A3-ACECC74A8F40}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{64E2B4ED-96ED-E245-9D6F-4C8E04E3F1C2}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{0565AD1B-BFA7-2D46-A0B9-5E0FF42C0079}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{B7B5FE7D-B854-1048-BDEF-82E385B4E282}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{425177D5-14C0-7F43-AAFF-29E1B45FEB28}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{CE1B6A49-D37E-BF48-A50F-9891D269065F}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{83C45654-EA71-464F-ABA8-1B65A4DA4D8C}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{71941B0B-18FF-A34E-AE92-E535E8B56FDA}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{14AF4AC6-DE15-1C45-AB40-B7C6A9126E41}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{0AFDE0B1-0E9A-7F4C-9582-55B8501302C9}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{FE518D04-EE3C-9F47-BA1F-D7CF58FF269E}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{2B17591F-B491-E647-8D9D-F851E98B334C}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{53A615DB-3A78-774A-B917-6723938BA610}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{0780B319-1AFA-554E-A256-7D4900E756C7}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{4A119122-53A6-D84D-94CC-D7057CC60BAF}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{F567A95A-2864-424B-86F1-3968CD4CA5EA}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{50E4BF94-05B9-0F42-8386-C4691DDAF699}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{2F0AA97C-9096-964A-9E20-93FDD7CF353E}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{9D258B8F-C34A-B444-A2D5-07FFC445DD9E}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{428E083E-E717-E54B-99DA-D635085532A0}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{76F927AA-248B-6C4B-BD99-1D7F2ED5E3BD}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{A7929D45-180B-184B-9CF8-54266274B290}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{DB6464E9-7E54-D245-9A13-543E5CBD3260}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{5096EE4A-B7BE-2440-9C44-BB75D00683D9}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00F21EA7-4AA2-A248-A1D7-849B226A08EC}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{7E4F48F2-44E3-B443-9316-A845835464E9}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{3DFEFA45-2119-A348-90F8-0ECCC60FB207}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{66E05900-5F83-A241-8B6F-785E4F89EA77}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{E942DB1B-3EDC-B443-89AC-8CD62AE8366D}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{FC06BB41-059E-7E49-B14F-AA76886074F6}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{7AE13EB3-384D-2E4F-B1FC-75A42AB494E5}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{B12E8FBD-7043-5C4E-A389-4758792D2A17}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{D5CF11E0-4644-684D-90B8-2942C7A2EE53}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{586E47EB-84DF-9142-BC86-D7238B865035}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{B7C19E4C-90CC-984E-832B-5651AE84C110}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{D4BFBC8D-C7FF-5F4A-AE79-E186E48052B8}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{6D57F7E4-66C6-E14E-B9A2-9214B824CFCE}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{6AAEDA47-A75B-E64A-A57A-965E1B316259}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{F30D7C60-8843-3248-BBD4-0D247509A990}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{02982162-CB46-9B4E-841E-CB0D4936E089}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{360B0F53-39B8-DA41-A1B6-02E630354BD2}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{47B9277E-406E-2F4F-9442-1BC444375B73}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{7E09813E-6C68-3540-9ACE-11C73C058BB8}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{DEA170E0-D167-D44A-B187-D47C85EC554A}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{91FEBEA5-4BDD-094E-9AB4-D10D8519D474}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{F1EAD3B5-03DE-8644-A57A-9FE35AC112C7}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{E4D84553-0A56-3A45-88F4-BB09C55FC5AF}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{CEB1D048-CF70-9649-A8EE-B444B9C205CC}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{8081FB01-7153-9248-A310-B5DCEEC160D7}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{49393D75-4778-B34F-9B7A-A468EE37CB45}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{18EA8077-F793-164F-BF97-11978BCE69BC}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{E51E0BDE-AE02-C746-9B02-8716E8568633}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{EB30EBD5-CFDB-C244-B142-88F9C967ED73}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{1F22BC17-8625-D94C-81BF-7521E150F4F7}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{4450A0F4-7D74-0440-A808-AC51DE7E71C8}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{01501ED5-3224-3246-8970-811023153BD1}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{96CDE724-9C3A-CA48-AF6D-291FB1262946}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{9BD81534-9403-5B4B-9F08-8D4436FFE87C}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{6F01C9FD-EE70-5F47-A82C-BA1957B34749}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{86E1B3B9-EF56-5742-A6B2-3535EFD2C277}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{0DF613C8-B76A-E048-A8FB-FAC2B12468EA}"/>
+    <hyperlink ref="C104" r:id="rId103" xr:uid="{C0A19A49-4BF5-3C4D-BB06-91A41EF1884F}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{D693AD2E-DB90-DA4C-AD51-73E4170CEB15}"/>
+    <hyperlink ref="C106" r:id="rId105" xr:uid="{BA4F64AF-0C52-1045-8F38-D9624A4D6D18}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{C8ED59B8-B12D-C048-936E-65B356232DC4}"/>
+    <hyperlink ref="C108" r:id="rId107" xr:uid="{C48114EC-A864-DE4D-95A9-BC014ADD4C4E}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{DAA72935-19E1-7748-A4E0-4B521D80376D}"/>
+    <hyperlink ref="C110" r:id="rId109" xr:uid="{FA468570-A74B-4349-9FE1-4818AE66AE12}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{A049B402-4C59-094B-B470-4EF513AB56C8}"/>
+    <hyperlink ref="C112" r:id="rId111" xr:uid="{0C6B2B5F-CC83-3A40-96BF-0A4D7F8C2F0F}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{05DF43E7-0BFC-5A42-B1D1-8165D11F5547}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{91FE12C5-FEB5-D74D-BED9-ABBDCB522317}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{F6B78772-E2A2-324F-A821-BDDABD70ED4D}"/>
+    <hyperlink ref="C116" r:id="rId115" xr:uid="{06BB9851-5D2B-574E-A332-ED0581B3A174}"/>
+    <hyperlink ref="C117" r:id="rId116" xr:uid="{A9FA6237-59AF-FC4C-B402-16E4573F559C}"/>
+    <hyperlink ref="C118" r:id="rId117" xr:uid="{FF4B8C12-8A47-BE40-9EE7-0E6C41825E65}"/>
+    <hyperlink ref="C119" r:id="rId118" xr:uid="{FFD321DF-A2E8-2840-ADF4-E6E682C79FC7}"/>
+    <hyperlink ref="C120" r:id="rId119" xr:uid="{B9F0563A-14EE-DD4C-AEE4-B985EB4CB8C7}"/>
+    <hyperlink ref="C121" r:id="rId120" xr:uid="{30286D81-0530-EE48-8F18-4B31F8F3EEC6}"/>
+    <hyperlink ref="C122" r:id="rId121" xr:uid="{3554080C-3C9E-A248-96B5-85F670AEE2AC}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{E125A178-7AED-5A42-BB07-27ACAFD3A0F0}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{E482771B-E717-0C41-9EDE-88A9EECB1DB9}"/>
+    <hyperlink ref="C125" r:id="rId124" xr:uid="{F8401FBC-7CF9-7049-8A1B-2F381F485A5B}"/>
+    <hyperlink ref="C126" r:id="rId125" xr:uid="{32211EB0-B3B7-A647-A54F-58530CAAE573}"/>
+    <hyperlink ref="C127" r:id="rId126" xr:uid="{2495B0C4-E461-CE4B-8719-59733CDC72BA}"/>
+    <hyperlink ref="C128" r:id="rId127" xr:uid="{CCCC44E3-BF7C-AB4B-A039-C5A109B06D78}"/>
+    <hyperlink ref="C129" r:id="rId128" xr:uid="{D4AB6E55-65F0-B84D-BB5D-F55F0D344011}"/>
+    <hyperlink ref="C130" r:id="rId129" xr:uid="{2003D259-0598-B340-A2E3-7552B7FEE34D}"/>
+    <hyperlink ref="C131" r:id="rId130" xr:uid="{C53EFB31-4004-8E4A-B461-EF8E9917BBD7}"/>
+    <hyperlink ref="C132" r:id="rId131" xr:uid="{7FAD77F9-30B9-6A4A-A5B4-2E5424438AAD}"/>
+    <hyperlink ref="C133" r:id="rId132" xr:uid="{07DC7FD5-905A-A74E-BB8E-D48E0DCFE064}"/>
+    <hyperlink ref="C134" r:id="rId133" xr:uid="{145B24F8-69B3-4642-A92B-34D1BD393644}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{CA5E2597-0A73-0346-8B7D-21FE5EF84010}"/>
+    <hyperlink ref="C136" r:id="rId135" xr:uid="{3710EA00-4F39-2D44-BE10-F7F7E30746EF}"/>
+    <hyperlink ref="C137" r:id="rId136" xr:uid="{9634E0C9-7081-5C43-A798-3A55F7EC16B7}"/>
+    <hyperlink ref="C138" r:id="rId137" xr:uid="{490C3BFD-7657-2D48-A31C-248807CE1134}"/>
+    <hyperlink ref="C139" r:id="rId138" xr:uid="{C0843366-42A8-E14D-B06D-794032E15025}"/>
+    <hyperlink ref="C140" r:id="rId139" xr:uid="{66A2E1A0-1626-0F45-8981-06C7253FD8D0}"/>
+    <hyperlink ref="C141" r:id="rId140" xr:uid="{53477E31-C634-9742-865C-77B8625BDA5D}"/>
+    <hyperlink ref="C142" r:id="rId141" xr:uid="{587554D8-7275-BF48-AE68-717872C44CCD}"/>
+    <hyperlink ref="C143" r:id="rId142" xr:uid="{70CFB1C8-8202-0B46-A62A-82107CA2DA8E}"/>
+    <hyperlink ref="C144" r:id="rId143" xr:uid="{C5F40677-9CF4-454C-A36C-7F088FDE8718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_undangan.xlsx
+++ b/data_undangan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haznathooriq/Downloads/undangan-online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88268B84-D48E-1648-AE33-E0CE9D0DCAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AD7C74-53E5-3043-9331-AB6878F44C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="domain" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Anshori</t>
   </si>
   <si>
-    <t>DiniLevi</t>
-  </si>
-  <si>
     <t>Rizal</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>https://haznadimaswedding.site/?to=Desty</t>
   </si>
   <si>
-    <t>https://haznadimaswedding.site/?to=DiniLevi</t>
-  </si>
-  <si>
     <t>https://haznadimaswedding.site/?to=Faruq</t>
   </si>
   <si>
@@ -775,401 +769,407 @@
     <t>https://haznadimaswedding.site/?to=Iffad%20Rakhmanhuda%20S.ST.,M.T</t>
   </si>
   <si>
-    <t>Dhika%20&amp;%20Intan</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Dhika%20&amp;%20Intan</t>
-  </si>
-  <si>
-    <t>Sari%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Sari%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Dessy%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Dessy%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Aridya%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Aridya%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Rinta%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Rinta%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Wahyudi%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Wahyudi%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Bagus%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Bagus%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Aisyah%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Aisyah%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Yudi%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Yudi%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Thoriq%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Thoriq%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Lucky%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Lucky%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Akbar%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Akbar%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Yosta%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Yosta%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Ugra%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Ugra%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Febrianto%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Febrianto%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Astrid%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Astrid%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Metta%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Metta%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Nahri%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Nahri%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Umi%20kosan%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Umi%20kosan%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Wiwik%20Y%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Wiwik%20Y%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Ainun%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Ainun%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Indi%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Indi%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Hafni%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Hafni%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Pak%20List%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Pak%20List%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Cyrillus%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Cyrillus%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Bu%20Yanti%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Bu%20Yanti%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Bayu%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Bayu%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Sifana%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Sifana%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Nisa%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Nisa%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Rima%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Rima%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Aziz%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Aziz%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Ziza%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Ziza%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Nuke%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Nuke%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Gilang%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Gilang%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Utami%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Utami%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Iwan%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Iwan%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Pascal%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Pascal%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Pak%20Awi%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Pak%20Awi%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Mayang%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Mayang%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Maria%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Maria%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Kumala%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Kumala%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Naufal%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Naufal%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Oka%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Oka%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Syahrul%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Syahrul%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Ilham%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Ilham%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Rizal%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Rizal%20&amp;%20partner</t>
-  </si>
-  <si>
-    <t>Mas%20Hendro%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Mas%20Hendro%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Syaiful%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Syaiful%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Zahra%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Zahra%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Prima%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Prima%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Sasha%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Sasha%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Hanna%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Hanna%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Kevin%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Kevin%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Fira%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Fira%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Annisa%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Annisa%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Rian%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Rian%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Pam%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Pam%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Ester%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Ester%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Rendra%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Rendra%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Rinto%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Rinto%20&amp;%20Partner</t>
-  </si>
-  <si>
     <t>SEMBA%20UGM</t>
   </si>
   <si>
     <t>https://haznadimaswedding.site/?to=SEMBA%20UGM</t>
   </si>
   <si>
-    <t>Koh%20Feby%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Koh%20Feby%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Mba%20ines%20&amp;%20mas%20Fajar</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Mba%20ines%20&amp;%20mas%20Fajar</t>
-  </si>
-  <si>
-    <t>Kiki%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Kiki%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>Pundhi%20&amp;%20Partner</t>
-  </si>
-  <si>
-    <t>https://haznadimaswedding.site/?to=Pundhi%20&amp;%20Partner</t>
+    <t>Dhika%20%26%20Intan</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dhika%20%26%20Intan</t>
+  </si>
+  <si>
+    <t>Sari%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Sari%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Dini&amp;Levi</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dini%20%26%20Levi</t>
+  </si>
+  <si>
+    <t>Dessy%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Dessy%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Aridya%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Aridya%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Rinta%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rinta%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Wahyudi%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Wahyudi%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Bagus%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bagus%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Aisyah%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Aisyah%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Yudi%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Yudi%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Thoriq%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Thoriq%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Lucky%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Lucky%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Akbar%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Akbar%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Yosta%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Yosta%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Ugra%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ugra%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Febrianto%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Febrianto%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Astrid%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Astrid%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Metta%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Metta%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Nahri%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nahri%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Umi%20kosan%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Umi%20kosan%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Wiwik%20Y%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Wiwik%20Y%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Ainun%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ainun%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Indi%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Indi%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Hafni%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hafni%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Pak%20List%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pak%20List%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Cyrillus%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Cyrillus%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Bu%20Yanti%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bu%20Yanti%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Bayu%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Bayu%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Sifana%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Sifana%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Nisa%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nisa%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Rima%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rima%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Aziz%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Aziz%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Ziza%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ziza%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Nuke%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Nuke%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Gilang%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Gilang%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Utami%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Utami%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Iwan%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Iwan%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Pascal%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pascal%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Pak%20Awi%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pak%20Awi%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Mayang%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mayang%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Maria%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Maria%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Kumala%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kumala%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Naufal%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Naufal%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Oka%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Oka%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Syahrul%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Syahrul%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Ilham%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ilham%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Rizal%20%26%20partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rizal%20%26%20partner</t>
+  </si>
+  <si>
+    <t>Mas%20Hendro%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mas%20Hendro%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Syaiful%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Syaiful%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Zahra%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Zahra%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Prima%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Prima%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Sasha%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Sasha%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Hanna%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Hanna%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Kevin%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kevin%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Fira%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Fira%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Annisa%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Annisa%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Rian%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rian%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Pam%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pam%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Ester%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Ester%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Rendra%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rendra%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Rinto%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Rinto%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Koh%20Feby%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Koh%20Feby%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Mba%20ines%20%26%20mas%20Fajar</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Mba%20ines%20%26%20mas%20Fajar</t>
+  </si>
+  <si>
+    <t>Kiki%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Kiki%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>Pundhi%20%26%20Partner</t>
+  </si>
+  <si>
+    <t>https://haznadimaswedding.site/?to=Pundhi%20%26%20Partner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1203,6 +1203,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1225,13 +1232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
@@ -1453,15 +1461,15 @@
   </sheetPr>
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1495,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1506,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1517,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1528,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1539,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1550,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1561,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1594,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1605,7 +1613,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1616,18 +1624,18 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
+        <v>255</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1638,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1649,7 +1657,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1660,7 +1668,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1671,7 +1679,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1682,18 +1690,18 @@
         <v>31</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,194 +1712,194 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1902,95 +1910,95 @@
         <v>18</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2001,7 +2009,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2012,18 +2020,18 @@
         <v>20</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2031,21 +2039,21 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2056,18 +2064,18 @@
         <v>22</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2078,265 +2086,265 @@
         <v>23</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>251</v>
@@ -2347,7 +2355,7 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>253</v>
@@ -2358,656 +2366,656 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>371</v>
+        <v>249</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>372</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
         <v>373</v>
@@ -3018,7 +3026,7 @@
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
         <v>375</v>
@@ -3029,7 +3037,7 @@
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
         <v>377</v>
@@ -3040,7 +3048,7 @@
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
         <v>379</v>
@@ -3106,94 +3114,94 @@
     <hyperlink ref="C54" r:id="rId53" xr:uid="{2B17591F-B491-E647-8D9D-F851E98B334C}"/>
     <hyperlink ref="C55" r:id="rId54" xr:uid="{53A615DB-3A78-774A-B917-6723938BA610}"/>
     <hyperlink ref="C56" r:id="rId55" xr:uid="{0780B319-1AFA-554E-A256-7D4900E756C7}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{4A119122-53A6-D84D-94CC-D7057CC60BAF}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{F567A95A-2864-424B-86F1-3968CD4CA5EA}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{50E4BF94-05B9-0F42-8386-C4691DDAF699}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{2F0AA97C-9096-964A-9E20-93FDD7CF353E}"/>
-    <hyperlink ref="C61" r:id="rId60" xr:uid="{9D258B8F-C34A-B444-A2D5-07FFC445DD9E}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{428E083E-E717-E54B-99DA-D635085532A0}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{76F927AA-248B-6C4B-BD99-1D7F2ED5E3BD}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{A7929D45-180B-184B-9CF8-54266274B290}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{DB6464E9-7E54-D245-9A13-543E5CBD3260}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{5096EE4A-B7BE-2440-9C44-BB75D00683D9}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{00F21EA7-4AA2-A248-A1D7-849B226A08EC}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{7E4F48F2-44E3-B443-9316-A845835464E9}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{3DFEFA45-2119-A348-90F8-0ECCC60FB207}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{66E05900-5F83-A241-8B6F-785E4F89EA77}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{E942DB1B-3EDC-B443-89AC-8CD62AE8366D}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{FC06BB41-059E-7E49-B14F-AA76886074F6}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{7AE13EB3-384D-2E4F-B1FC-75A42AB494E5}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{B12E8FBD-7043-5C4E-A389-4758792D2A17}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{D5CF11E0-4644-684D-90B8-2942C7A2EE53}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{586E47EB-84DF-9142-BC86-D7238B865035}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{B7C19E4C-90CC-984E-832B-5651AE84C110}"/>
-    <hyperlink ref="C78" r:id="rId77" xr:uid="{D4BFBC8D-C7FF-5F4A-AE79-E186E48052B8}"/>
-    <hyperlink ref="C79" r:id="rId78" xr:uid="{6D57F7E4-66C6-E14E-B9A2-9214B824CFCE}"/>
-    <hyperlink ref="C80" r:id="rId79" xr:uid="{6AAEDA47-A75B-E64A-A57A-965E1B316259}"/>
-    <hyperlink ref="C81" r:id="rId80" xr:uid="{F30D7C60-8843-3248-BBD4-0D247509A990}"/>
-    <hyperlink ref="C82" r:id="rId81" xr:uid="{02982162-CB46-9B4E-841E-CB0D4936E089}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{360B0F53-39B8-DA41-A1B6-02E630354BD2}"/>
-    <hyperlink ref="C84" r:id="rId83" xr:uid="{47B9277E-406E-2F4F-9442-1BC444375B73}"/>
-    <hyperlink ref="C85" r:id="rId84" xr:uid="{7E09813E-6C68-3540-9ACE-11C73C058BB8}"/>
-    <hyperlink ref="C86" r:id="rId85" xr:uid="{DEA170E0-D167-D44A-B187-D47C85EC554A}"/>
-    <hyperlink ref="C87" r:id="rId86" xr:uid="{91FEBEA5-4BDD-094E-9AB4-D10D8519D474}"/>
-    <hyperlink ref="C88" r:id="rId87" xr:uid="{F1EAD3B5-03DE-8644-A57A-9FE35AC112C7}"/>
-    <hyperlink ref="C89" r:id="rId88" xr:uid="{E4D84553-0A56-3A45-88F4-BB09C55FC5AF}"/>
-    <hyperlink ref="C90" r:id="rId89" xr:uid="{CEB1D048-CF70-9649-A8EE-B444B9C205CC}"/>
-    <hyperlink ref="C91" r:id="rId90" xr:uid="{8081FB01-7153-9248-A310-B5DCEEC160D7}"/>
-    <hyperlink ref="C92" r:id="rId91" xr:uid="{49393D75-4778-B34F-9B7A-A468EE37CB45}"/>
-    <hyperlink ref="C93" r:id="rId92" xr:uid="{18EA8077-F793-164F-BF97-11978BCE69BC}"/>
-    <hyperlink ref="C94" r:id="rId93" xr:uid="{E51E0BDE-AE02-C746-9B02-8716E8568633}"/>
-    <hyperlink ref="C95" r:id="rId94" xr:uid="{EB30EBD5-CFDB-C244-B142-88F9C967ED73}"/>
-    <hyperlink ref="C96" r:id="rId95" xr:uid="{1F22BC17-8625-D94C-81BF-7521E150F4F7}"/>
-    <hyperlink ref="C97" r:id="rId96" xr:uid="{4450A0F4-7D74-0440-A808-AC51DE7E71C8}"/>
-    <hyperlink ref="C98" r:id="rId97" xr:uid="{01501ED5-3224-3246-8970-811023153BD1}"/>
-    <hyperlink ref="C99" r:id="rId98" xr:uid="{96CDE724-9C3A-CA48-AF6D-291FB1262946}"/>
-    <hyperlink ref="C100" r:id="rId99" xr:uid="{9BD81534-9403-5B4B-9F08-8D4436FFE87C}"/>
-    <hyperlink ref="C101" r:id="rId100" xr:uid="{6F01C9FD-EE70-5F47-A82C-BA1957B34749}"/>
-    <hyperlink ref="C102" r:id="rId101" xr:uid="{86E1B3B9-EF56-5742-A6B2-3535EFD2C277}"/>
-    <hyperlink ref="C103" r:id="rId102" xr:uid="{0DF613C8-B76A-E048-A8FB-FAC2B12468EA}"/>
-    <hyperlink ref="C104" r:id="rId103" xr:uid="{C0A19A49-4BF5-3C4D-BB06-91A41EF1884F}"/>
-    <hyperlink ref="C105" r:id="rId104" xr:uid="{D693AD2E-DB90-DA4C-AD51-73E4170CEB15}"/>
-    <hyperlink ref="C106" r:id="rId105" xr:uid="{BA4F64AF-0C52-1045-8F38-D9624A4D6D18}"/>
-    <hyperlink ref="C107" r:id="rId106" xr:uid="{C8ED59B8-B12D-C048-936E-65B356232DC4}"/>
-    <hyperlink ref="C108" r:id="rId107" xr:uid="{C48114EC-A864-DE4D-95A9-BC014ADD4C4E}"/>
-    <hyperlink ref="C109" r:id="rId108" xr:uid="{DAA72935-19E1-7748-A4E0-4B521D80376D}"/>
-    <hyperlink ref="C110" r:id="rId109" xr:uid="{FA468570-A74B-4349-9FE1-4818AE66AE12}"/>
-    <hyperlink ref="C111" r:id="rId110" xr:uid="{A049B402-4C59-094B-B470-4EF513AB56C8}"/>
-    <hyperlink ref="C112" r:id="rId111" xr:uid="{0C6B2B5F-CC83-3A40-96BF-0A4D7F8C2F0F}"/>
-    <hyperlink ref="C113" r:id="rId112" xr:uid="{05DF43E7-0BFC-5A42-B1D1-8165D11F5547}"/>
-    <hyperlink ref="C114" r:id="rId113" xr:uid="{91FE12C5-FEB5-D74D-BED9-ABBDCB522317}"/>
-    <hyperlink ref="C115" r:id="rId114" xr:uid="{F6B78772-E2A2-324F-A821-BDDABD70ED4D}"/>
-    <hyperlink ref="C116" r:id="rId115" xr:uid="{06BB9851-5D2B-574E-A332-ED0581B3A174}"/>
-    <hyperlink ref="C117" r:id="rId116" xr:uid="{A9FA6237-59AF-FC4C-B402-16E4573F559C}"/>
-    <hyperlink ref="C118" r:id="rId117" xr:uid="{FF4B8C12-8A47-BE40-9EE7-0E6C41825E65}"/>
-    <hyperlink ref="C119" r:id="rId118" xr:uid="{FFD321DF-A2E8-2840-ADF4-E6E682C79FC7}"/>
-    <hyperlink ref="C120" r:id="rId119" xr:uid="{B9F0563A-14EE-DD4C-AEE4-B985EB4CB8C7}"/>
-    <hyperlink ref="C121" r:id="rId120" xr:uid="{30286D81-0530-EE48-8F18-4B31F8F3EEC6}"/>
-    <hyperlink ref="C122" r:id="rId121" xr:uid="{3554080C-3C9E-A248-96B5-85F670AEE2AC}"/>
-    <hyperlink ref="C123" r:id="rId122" xr:uid="{E125A178-7AED-5A42-BB07-27ACAFD3A0F0}"/>
-    <hyperlink ref="C124" r:id="rId123" xr:uid="{E482771B-E717-0C41-9EDE-88A9EECB1DB9}"/>
-    <hyperlink ref="C125" r:id="rId124" xr:uid="{F8401FBC-7CF9-7049-8A1B-2F381F485A5B}"/>
-    <hyperlink ref="C126" r:id="rId125" xr:uid="{32211EB0-B3B7-A647-A54F-58530CAAE573}"/>
-    <hyperlink ref="C127" r:id="rId126" xr:uid="{2495B0C4-E461-CE4B-8719-59733CDC72BA}"/>
-    <hyperlink ref="C128" r:id="rId127" xr:uid="{CCCC44E3-BF7C-AB4B-A039-C5A109B06D78}"/>
-    <hyperlink ref="C129" r:id="rId128" xr:uid="{D4AB6E55-65F0-B84D-BB5D-F55F0D344011}"/>
-    <hyperlink ref="C130" r:id="rId129" xr:uid="{2003D259-0598-B340-A2E3-7552B7FEE34D}"/>
-    <hyperlink ref="C131" r:id="rId130" xr:uid="{C53EFB31-4004-8E4A-B461-EF8E9917BBD7}"/>
-    <hyperlink ref="C132" r:id="rId131" xr:uid="{7FAD77F9-30B9-6A4A-A5B4-2E5424438AAD}"/>
-    <hyperlink ref="C133" r:id="rId132" xr:uid="{07DC7FD5-905A-A74E-BB8E-D48E0DCFE064}"/>
-    <hyperlink ref="C134" r:id="rId133" xr:uid="{145B24F8-69B3-4642-A92B-34D1BD393644}"/>
-    <hyperlink ref="C135" r:id="rId134" xr:uid="{CA5E2597-0A73-0346-8B7D-21FE5EF84010}"/>
-    <hyperlink ref="C136" r:id="rId135" xr:uid="{3710EA00-4F39-2D44-BE10-F7F7E30746EF}"/>
-    <hyperlink ref="C137" r:id="rId136" xr:uid="{9634E0C9-7081-5C43-A798-3A55F7EC16B7}"/>
-    <hyperlink ref="C138" r:id="rId137" xr:uid="{490C3BFD-7657-2D48-A31C-248807CE1134}"/>
-    <hyperlink ref="C139" r:id="rId138" xr:uid="{C0843366-42A8-E14D-B06D-794032E15025}"/>
-    <hyperlink ref="C140" r:id="rId139" xr:uid="{66A2E1A0-1626-0F45-8981-06C7253FD8D0}"/>
-    <hyperlink ref="C141" r:id="rId140" xr:uid="{53477E31-C634-9742-865C-77B8625BDA5D}"/>
-    <hyperlink ref="C142" r:id="rId141" xr:uid="{587554D8-7275-BF48-AE68-717872C44CCD}"/>
-    <hyperlink ref="C143" r:id="rId142" xr:uid="{70CFB1C8-8202-0B46-A62A-82107CA2DA8E}"/>
-    <hyperlink ref="C144" r:id="rId143" xr:uid="{C5F40677-9CF4-454C-A36C-7F088FDE8718}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{124D5900-7F33-974A-9250-73A4ACB06DC5}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{6576EA37-A870-B944-AFF5-79E1DBE9C277}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{F3E1E5F1-7094-A946-BB03-6C5DA44C00B4}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{2821B627-AF82-584B-877E-17F537DF6982}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{0D391F2F-353A-4C42-9DA4-0D657A478495}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{50C9C337-AA1B-B148-B4DE-EBA6E6A60740}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{F8824C1E-4A73-A44B-87C0-A5E2938C458F}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{92E38ABF-D1CC-C148-9987-333D8C73C0A5}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{3EE004EE-84F7-D044-990E-94BE803F971D}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{E5204396-F2B0-0942-9019-3B1BC6CB1F86}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{4E285B24-22B4-6F47-A727-63D5D3ABFBA1}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{F504B0BD-9B81-E44B-BCBA-A417F14DA736}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{9B1046B1-48AF-0C4C-8AA4-7A15320B4C07}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{0DE9F42D-4234-554A-969D-0A85A4516687}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{474A3021-E6B8-804B-A12F-BB8645A805CD}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{EE22A46E-757A-5845-B769-8B848E524F1D}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{0ECDFA3D-5E30-A842-8857-ACF3561E39A2}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{543369F8-477B-6549-A817-5AFE6B5C0182}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{598720BA-BC04-8B4C-9047-F8FC8C37281D}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{59F99951-3FC5-B746-B705-C2B58347F96F}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{FC3A98CF-8709-D34D-AC06-35796E5D9F98}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{80918E96-AA46-5443-B11A-7427F3FA7FE7}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{F50D2737-CB4B-3846-B6D0-38A12CF2E1AA}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{E113BF43-82B0-3F46-B1A6-75220EDD0BAF}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{E983DBC0-B402-8440-AAD6-CC2E3E9E29A4}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{D3A9A49D-EF6B-EC4D-9C84-A9C5F91673CB}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{DF26FECB-2DC7-5348-9099-931B29917138}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{3757396D-DA80-CA42-A67F-D5D1E28A0B2D}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{4DCFE509-A996-1A41-AB2C-0C895DB7D043}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{6DD8AB0C-107B-5345-B8ED-8A267FE74A85}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{76D29ABD-BCBC-2F45-89F3-586289C5921B}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{8B3BB671-75A9-7C41-A92E-A0468E196A2C}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{AB129B8C-23EA-A448-BD87-28CA0D8F419C}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{0926D5E5-F513-9943-BA7F-DF16398BC936}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{D9AD59BF-1FBC-B544-946F-17D8A8778D21}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{739AAB5C-E4F8-7C49-9680-613FDE93488C}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{7251BA7E-FF83-5F40-9ACF-0F048D478A12}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{D9CE693A-F534-C541-9237-0D59854F5D0F}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{435325A5-E229-CD40-AA86-6F712B16A000}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{7D79D4E4-A006-A74C-A686-A1ACDAC58372}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{FC11C88F-A5AD-6147-8D28-0A5FA59D1275}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{56B6E857-7D94-C64F-9E6F-1234C62D9FF3}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{8779850B-824B-0543-A7FD-5D703BDFFDD5}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{806E4220-921E-0F4D-9398-554F293BB9B6}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{504A06AE-C80C-DC4B-87EF-CC814C3F3F20}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{1F31EEFA-4392-C943-A20F-F53872859682}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{3446D401-9F02-1240-B43A-0F06E9DB17BF}"/>
+    <hyperlink ref="C104" r:id="rId103" xr:uid="{33406EB0-FB94-9847-A475-43EFE4AC6E78}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{B2C63629-6CF6-1D43-83C7-22E4668B4A4E}"/>
+    <hyperlink ref="C106" r:id="rId105" xr:uid="{434AF054-0A2B-7A4C-8569-80AFD1CC531A}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{6949CAFB-9975-6F4A-A6AD-F9AEDD2CAA5B}"/>
+    <hyperlink ref="C108" r:id="rId107" xr:uid="{A5687E53-1B47-7E40-B36C-9AE95834CAE3}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{A8981416-4224-8B4E-B836-565D7169E741}"/>
+    <hyperlink ref="C110" r:id="rId109" xr:uid="{1D09A3BE-C5AA-4041-98A4-235B4451DA08}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{A3D8ED62-38A4-5147-91CC-EC84B69555F6}"/>
+    <hyperlink ref="C112" r:id="rId111" xr:uid="{F83BD9F6-D4C6-2C43-8934-A79C166E4E3A}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{A3E3E101-A3CE-4840-9612-05E5E021F9F8}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{F1342376-16D8-9D45-9434-D42A188101EE}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{F580BCEE-420A-1046-BB08-FB03D407D891}"/>
+    <hyperlink ref="C116" r:id="rId115" xr:uid="{B3E20B27-36CD-0342-87A2-E881BC740FB9}"/>
+    <hyperlink ref="C117" r:id="rId116" xr:uid="{E133631B-21AD-2C44-8ADE-06D5A193E20C}"/>
+    <hyperlink ref="C118" r:id="rId117" xr:uid="{F20C9907-AC39-F24B-9B28-E574CE69BD1F}"/>
+    <hyperlink ref="C119" r:id="rId118" xr:uid="{AB54952F-D4D0-6146-A253-DD044CF7ABB5}"/>
+    <hyperlink ref="C120" r:id="rId119" xr:uid="{00D60A2F-7AD1-8B42-80BF-E95175E05C82}"/>
+    <hyperlink ref="C121" r:id="rId120" xr:uid="{75D289EC-F827-004A-8028-C5BC1E5E44C1}"/>
+    <hyperlink ref="C122" r:id="rId121" xr:uid="{DB3E4C8B-E383-234B-90E5-68DFF5CF232F}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{80950AED-2E8D-E844-88D3-3E96CFAD1144}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{653AF229-39D8-314B-9C7C-AA7B6BE0EED1}"/>
+    <hyperlink ref="C125" r:id="rId124" xr:uid="{4C007E1D-A20C-5F42-8336-60145B612B79}"/>
+    <hyperlink ref="C126" r:id="rId125" xr:uid="{FA6D5BB3-3A48-A04E-95D3-07C2B3E780E8}"/>
+    <hyperlink ref="C127" r:id="rId126" xr:uid="{76944527-4ACB-BA4D-BC7F-3B086435DADC}"/>
+    <hyperlink ref="C128" r:id="rId127" xr:uid="{AE30A3BE-92B0-0743-9E1E-22EFC6CB65AF}"/>
+    <hyperlink ref="C129" r:id="rId128" xr:uid="{D787C0FF-647C-6F44-9948-083AFC3130EE}"/>
+    <hyperlink ref="C130" r:id="rId129" xr:uid="{5213CA9B-90D8-A644-B25A-CD7B55039D48}"/>
+    <hyperlink ref="C131" r:id="rId130" xr:uid="{970CD27C-AB5D-BC44-A210-C5B09D2C19AB}"/>
+    <hyperlink ref="C132" r:id="rId131" xr:uid="{E9786B14-FDFD-BB47-B6A0-1877792DD2F5}"/>
+    <hyperlink ref="C133" r:id="rId132" xr:uid="{5455F0CA-05BD-7341-8B18-9252A6D9A474}"/>
+    <hyperlink ref="C134" r:id="rId133" xr:uid="{3EBEF0D8-167A-6247-B02E-3C656F271F50}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{7649C9D3-E32F-2449-B81B-6AC9187157EF}"/>
+    <hyperlink ref="C136" r:id="rId135" xr:uid="{5F44E4B0-59ED-F542-B48A-C16F58960BF9}"/>
+    <hyperlink ref="C137" r:id="rId136" xr:uid="{7748D3B6-4CFF-3B44-8F77-B35307728835}"/>
+    <hyperlink ref="C138" r:id="rId137" xr:uid="{9A646FF9-FCB0-6A47-BDD0-09A60DF381AE}"/>
+    <hyperlink ref="C139" r:id="rId138" xr:uid="{4B5A3EC5-8039-EC44-AEB9-FE227CB81EC5}"/>
+    <hyperlink ref="C140" r:id="rId139" xr:uid="{5136BEAC-7D78-7549-90D0-BBB9BCC6C9C1}"/>
+    <hyperlink ref="C141" r:id="rId140" xr:uid="{7D24D250-1BEA-2541-9F98-51F141E1949B}"/>
+    <hyperlink ref="C142" r:id="rId141" xr:uid="{0642ADFC-DDBF-734B-9DB5-9F85BE7243C4}"/>
+    <hyperlink ref="C143" r:id="rId142" xr:uid="{6965036F-D5D5-AE43-93B4-405B207D54EF}"/>
+    <hyperlink ref="C144" r:id="rId143" xr:uid="{7E1A09E7-DE58-8B46-84A8-06157080BD77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
